--- a/Code/Results/Cases/Case_3_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9923264054069393</v>
+        <v>1.022816374890177</v>
       </c>
       <c r="D2">
-        <v>1.012299628290589</v>
+        <v>1.027559953783402</v>
       </c>
       <c r="E2">
-        <v>1.005334875364014</v>
+        <v>1.032988247842739</v>
       </c>
       <c r="F2">
-        <v>1.006314177106588</v>
+        <v>1.042879440361947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042758149624977</v>
+        <v>1.02899998184734</v>
       </c>
       <c r="J2">
-        <v>1.014739080103741</v>
+        <v>1.028000085590942</v>
       </c>
       <c r="K2">
-        <v>1.023590228475329</v>
+        <v>1.030379327425508</v>
       </c>
       <c r="L2">
-        <v>1.016720383899353</v>
+        <v>1.03579189266329</v>
       </c>
       <c r="M2">
-        <v>1.017686240765063</v>
+        <v>1.045654881882074</v>
       </c>
       <c r="N2">
-        <v>1.008949990031625</v>
+        <v>1.013398075608869</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9967043184131079</v>
+        <v>1.023725666834165</v>
       </c>
       <c r="D3">
-        <v>1.0155436515026</v>
+        <v>1.028231084591541</v>
       </c>
       <c r="E3">
-        <v>1.009279929204966</v>
+        <v>1.033869257034048</v>
       </c>
       <c r="F3">
-        <v>1.011280078177187</v>
+        <v>1.044013274956967</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043905156953098</v>
+        <v>1.029140952402609</v>
       </c>
       <c r="J3">
-        <v>1.017285232023842</v>
+        <v>1.028547797808808</v>
       </c>
       <c r="K3">
-        <v>1.025981437579476</v>
+        <v>1.030858578367409</v>
       </c>
       <c r="L3">
-        <v>1.019795432756487</v>
+        <v>1.036481595846159</v>
       </c>
       <c r="M3">
-        <v>1.021770634430214</v>
+        <v>1.04659879274947</v>
       </c>
       <c r="N3">
-        <v>1.009794648627762</v>
+        <v>1.013579247713899</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9994764293431161</v>
+        <v>1.02431404750331</v>
       </c>
       <c r="D4">
-        <v>1.017596081526097</v>
+        <v>1.028664738682125</v>
       </c>
       <c r="E4">
-        <v>1.011783882972973</v>
+        <v>1.034439802239133</v>
       </c>
       <c r="F4">
-        <v>1.01443307313257</v>
+        <v>1.044747914831296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044614923011629</v>
+        <v>1.029230095846343</v>
       </c>
       <c r="J4">
-        <v>1.018893537600384</v>
+        <v>1.028901606991762</v>
       </c>
       <c r="K4">
-        <v>1.02748667646082</v>
+        <v>1.031167396144163</v>
       </c>
       <c r="L4">
-        <v>1.021742137251108</v>
+        <v>1.036927718930909</v>
       </c>
       <c r="M4">
-        <v>1.024360369497699</v>
+        <v>1.047209956401147</v>
       </c>
       <c r="N4">
-        <v>1.010328151463288</v>
+        <v>1.013696260104713</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000627799233305</v>
+        <v>1.024561403770503</v>
       </c>
       <c r="D5">
-        <v>1.018448067061759</v>
+        <v>1.02884689877732</v>
       </c>
       <c r="E5">
-        <v>1.012825275321152</v>
+        <v>1.034679771723932</v>
       </c>
       <c r="F5">
-        <v>1.015744708033275</v>
+        <v>1.045056989683696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044905690729282</v>
+        <v>1.029267074457312</v>
       </c>
       <c r="J5">
-        <v>1.019560555951872</v>
+        <v>1.029050204510481</v>
       </c>
       <c r="K5">
-        <v>1.028109674934869</v>
+        <v>1.031296913263204</v>
       </c>
       <c r="L5">
-        <v>1.022550554397059</v>
+        <v>1.037115229689299</v>
       </c>
       <c r="M5">
-        <v>1.025436819674226</v>
+        <v>1.047466982261458</v>
       </c>
       <c r="N5">
-        <v>1.010549402649785</v>
+        <v>1.013745399586935</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000820311014675</v>
+        <v>1.024602936011279</v>
       </c>
       <c r="D6">
-        <v>1.018590491491502</v>
+        <v>1.02887747553214</v>
       </c>
       <c r="E6">
-        <v>1.012999480165654</v>
+        <v>1.034720070210241</v>
       </c>
       <c r="F6">
-        <v>1.015964138484186</v>
+        <v>1.045108898310083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044954069240479</v>
+        <v>1.029273254144216</v>
       </c>
       <c r="J6">
-        <v>1.019672024653457</v>
+        <v>1.029075146225924</v>
       </c>
       <c r="K6">
-        <v>1.028213711486663</v>
+        <v>1.031318641553042</v>
       </c>
       <c r="L6">
-        <v>1.022685715414118</v>
+        <v>1.037146711236469</v>
       </c>
       <c r="M6">
-        <v>1.02561685320649</v>
+        <v>1.047510143446122</v>
       </c>
       <c r="N6">
-        <v>1.01058637635446</v>
+        <v>1.013753647232708</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9994918684657755</v>
+        <v>1.024317352686902</v>
       </c>
       <c r="D7">
-        <v>1.017607508046723</v>
+        <v>1.028667173297976</v>
       </c>
       <c r="E7">
-        <v>1.011797841871243</v>
+        <v>1.034443008283262</v>
       </c>
       <c r="F7">
-        <v>1.014450653114906</v>
+        <v>1.044752043792909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044618838011129</v>
+        <v>1.029230591911381</v>
       </c>
       <c r="J7">
-        <v>1.018902485784147</v>
+        <v>1.028903593125476</v>
       </c>
       <c r="K7">
-        <v>1.027495039186064</v>
+        <v>1.031169127977289</v>
       </c>
       <c r="L7">
-        <v>1.021752978138959</v>
+        <v>1.036930224614671</v>
       </c>
       <c r="M7">
-        <v>1.02437480073141</v>
+        <v>1.047213390430129</v>
       </c>
       <c r="N7">
-        <v>1.010331119635386</v>
+        <v>1.01369691691568</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9938188201298707</v>
+        <v>1.023123672182278</v>
       </c>
       <c r="D8">
-        <v>1.013405820397328</v>
+        <v>1.027786891507369</v>
       </c>
       <c r="E8">
-        <v>1.006678470244838</v>
+        <v>1.033285890390322</v>
       </c>
       <c r="F8">
-        <v>1.0080052445869</v>
+        <v>1.043262423165682</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04315258944474</v>
+        <v>1.029048052455761</v>
       </c>
       <c r="J8">
-        <v>1.015607857403914</v>
+        <v>1.028185310635995</v>
       </c>
       <c r="K8">
-        <v>1.024407212342973</v>
+        <v>1.030541558872346</v>
       </c>
       <c r="L8">
-        <v>1.017768731003769</v>
+        <v>1.036025013911484</v>
       </c>
       <c r="M8">
-        <v>1.019077860708887</v>
+        <v>1.045973799731858</v>
       </c>
       <c r="N8">
-        <v>1.009238203837733</v>
+        <v>1.013459348532804</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9833333146986982</v>
+        <v>1.021020353938149</v>
       </c>
       <c r="D9">
-        <v>1.00562938223431</v>
+        <v>1.026231096395358</v>
       </c>
       <c r="E9">
-        <v>0.997264838763968</v>
+        <v>1.031250571599318</v>
       </c>
       <c r="F9">
-        <v>0.9961599650093211</v>
+        <v>1.04064500466883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040313610964088</v>
+        <v>1.028710545158183</v>
       </c>
       <c r="J9">
-        <v>1.009488662679239</v>
+        <v>1.026915069336979</v>
       </c>
       <c r="K9">
-        <v>1.018631782157635</v>
+        <v>1.029425874407922</v>
       </c>
       <c r="L9">
-        <v>1.010402448473575</v>
+        <v>1.034428720862707</v>
       </c>
       <c r="M9">
-        <v>1.009315652864638</v>
+        <v>1.043792503927648</v>
       </c>
       <c r="N9">
-        <v>1.00720811077269</v>
+        <v>1.01303906643594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759783852452162</v>
+        <v>1.019618257935725</v>
       </c>
       <c r="D10">
-        <v>1.0001721316064</v>
+        <v>1.025190874445915</v>
       </c>
       <c r="E10">
-        <v>0.9906964826963156</v>
+        <v>1.029896220100315</v>
       </c>
       <c r="F10">
-        <v>0.987896433667291</v>
+        <v>1.038905129510816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038238943880275</v>
+        <v>1.028474929386494</v>
       </c>
       <c r="J10">
-        <v>1.005178589926992</v>
+        <v>1.026065242603252</v>
       </c>
       <c r="K10">
-        <v>1.014538278859271</v>
+        <v>1.028675542565752</v>
       </c>
       <c r="L10">
-        <v>1.005235771617346</v>
+        <v>1.033363769456626</v>
       </c>
       <c r="M10">
-        <v>1.002487715421939</v>
+        <v>1.042340380410411</v>
       </c>
       <c r="N10">
-        <v>1.005778204771946</v>
+        <v>1.01275778316008</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726984084594879</v>
+        <v>1.019011172172623</v>
       </c>
       <c r="D11">
-        <v>0.9977388857252328</v>
+        <v>1.024739746804257</v>
       </c>
       <c r="E11">
-        <v>0.9877759713089637</v>
+        <v>1.029310382538446</v>
       </c>
       <c r="F11">
-        <v>0.9842218264529505</v>
+        <v>1.038152954494236</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037294881283053</v>
+        <v>1.028370397636827</v>
       </c>
       <c r="J11">
-        <v>1.003252786219019</v>
+        <v>1.02569655706187</v>
       </c>
       <c r="K11">
-        <v>1.012703569697377</v>
+        <v>1.028349102172932</v>
       </c>
       <c r="L11">
-        <v>1.002932156418204</v>
+        <v>1.032902464079779</v>
       </c>
       <c r="M11">
-        <v>0.999447558993804</v>
+        <v>1.041712094996036</v>
       </c>
       <c r="N11">
-        <v>1.005139329547883</v>
+        <v>1.012635728357418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9714649626299775</v>
+        <v>1.018785678860518</v>
       </c>
       <c r="D12">
-        <v>0.9968240175553923</v>
+        <v>1.024572073398303</v>
       </c>
       <c r="E12">
-        <v>0.9866790499357353</v>
+        <v>1.029092868279036</v>
       </c>
       <c r="F12">
-        <v>0.9828415526279137</v>
+        <v>1.037873744370017</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036937110792703</v>
+        <v>1.028331193698861</v>
       </c>
       <c r="J12">
-        <v>1.002528072840642</v>
+        <v>1.025559505690137</v>
       </c>
       <c r="K12">
-        <v>1.012012318378115</v>
+        <v>1.028227617056236</v>
       </c>
       <c r="L12">
-        <v>1.002065986938148</v>
+        <v>1.032731089242572</v>
       </c>
       <c r="M12">
-        <v>0.9983050335391402</v>
+        <v>1.041478796573182</v>
       </c>
       <c r="N12">
-        <v>1.004898916354628</v>
+        <v>1.012590353397531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9717302386104869</v>
+        <v>1.018834047687099</v>
       </c>
       <c r="D13">
-        <v>0.9970207684822416</v>
+        <v>1.024608044620858</v>
       </c>
       <c r="E13">
-        <v>0.9869149022271271</v>
+        <v>1.029139521652938</v>
       </c>
       <c r="F13">
-        <v>0.9831383358701734</v>
+        <v>1.037933627682915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037014179192804</v>
+        <v>1.02833962008908</v>
       </c>
       <c r="J13">
-        <v>1.00268395843608</v>
+        <v>1.025588908420438</v>
       </c>
       <c r="K13">
-        <v>1.012161042716236</v>
+        <v>1.028253686446064</v>
       </c>
       <c r="L13">
-        <v>1.002252267449436</v>
+        <v>1.032767850868434</v>
       </c>
       <c r="M13">
-        <v>0.9985507219302282</v>
+        <v>1.041528836484595</v>
       </c>
       <c r="N13">
-        <v>1.004950628808116</v>
+        <v>1.012600088212333</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725967646897925</v>
+        <v>1.018992532711474</v>
       </c>
       <c r="D14">
-        <v>0.9976634909313855</v>
+        <v>1.024725888992456</v>
       </c>
       <c r="E14">
-        <v>0.9876855504168258</v>
+        <v>1.029292400861993</v>
       </c>
       <c r="F14">
-        <v>0.98410805121585</v>
+        <v>1.038129871199502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037265454193612</v>
+        <v>1.028367164697311</v>
       </c>
       <c r="J14">
-        <v>1.003193075292667</v>
+        <v>1.025685230493264</v>
       </c>
       <c r="K14">
-        <v>1.012646632223424</v>
+        <v>1.028339064874054</v>
       </c>
       <c r="L14">
-        <v>1.002860776042997</v>
+        <v>1.032888298697924</v>
       </c>
       <c r="M14">
-        <v>0.9993533926216357</v>
+        <v>1.041692808947256</v>
       </c>
       <c r="N14">
-        <v>1.005119521161171</v>
+        <v>1.012631978430221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9731286317906754</v>
+        <v>1.019090181298367</v>
       </c>
       <c r="D15">
-        <v>0.9980580132790592</v>
+        <v>1.024798482990476</v>
       </c>
       <c r="E15">
-        <v>0.9881587471499078</v>
+        <v>1.029386606992681</v>
       </c>
       <c r="F15">
-        <v>0.9847034622007812</v>
+        <v>1.038250807328911</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037419324399297</v>
+        <v>1.028384086011022</v>
       </c>
       <c r="J15">
-        <v>1.003505501714781</v>
+        <v>1.025744563791324</v>
       </c>
       <c r="K15">
-        <v>1.01294451392795</v>
+        <v>1.02839163881207</v>
       </c>
       <c r="L15">
-        <v>1.00323428995699</v>
+        <v>1.032962507225984</v>
       </c>
       <c r="M15">
-        <v>0.9998461630962463</v>
+        <v>1.041793847716559</v>
       </c>
       <c r="N15">
-        <v>1.005223165181224</v>
+        <v>1.012651621969781</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9761939922678637</v>
+        <v>1.019658548933014</v>
       </c>
       <c r="D16">
-        <v>1.000332096564616</v>
+        <v>1.025220799571068</v>
       </c>
       <c r="E16">
-        <v>0.9908886448200697</v>
+        <v>1.029935113046817</v>
       </c>
       <c r="F16">
-        <v>0.9881382003384938</v>
+        <v>1.038955074267129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038300615307608</v>
+        <v>1.028481814021074</v>
       </c>
       <c r="J16">
-        <v>1.00530510820876</v>
+        <v>1.026089696261254</v>
       </c>
       <c r="K16">
-        <v>1.014658697371038</v>
+        <v>1.028697174943051</v>
       </c>
       <c r="L16">
-        <v>1.005387211672163</v>
+        <v>1.033394381162511</v>
       </c>
       <c r="M16">
-        <v>1.002687659168053</v>
+        <v>1.04238208809512</v>
       </c>
       <c r="N16">
-        <v>1.005820177329906</v>
+        <v>1.012765878138786</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9780907609015652</v>
+        <v>1.020015079747943</v>
       </c>
       <c r="D17">
-        <v>1.001739425094797</v>
+        <v>1.025485519904336</v>
       </c>
       <c r="E17">
-        <v>0.992580153592925</v>
+        <v>1.030279339179861</v>
       </c>
       <c r="F17">
-        <v>0.9902663045393825</v>
+        <v>1.039397164596682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038841025186058</v>
+        <v>1.028542445096334</v>
       </c>
       <c r="J17">
-        <v>1.006417717494925</v>
+        <v>1.026306000546719</v>
       </c>
       <c r="K17">
-        <v>1.015717024471178</v>
+        <v>1.028888417631373</v>
       </c>
       <c r="L17">
-        <v>1.006719542482788</v>
+        <v>1.033665238092887</v>
       </c>
       <c r="M17">
-        <v>1.004447180652089</v>
+        <v>1.042751208324283</v>
       </c>
       <c r="N17">
-        <v>1.006189289949682</v>
+        <v>1.012837479332056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9791879818593956</v>
+        <v>1.020223041089897</v>
       </c>
       <c r="D18">
-        <v>1.002553556525815</v>
+        <v>1.025639858714987</v>
       </c>
       <c r="E18">
-        <v>0.9935594590040588</v>
+        <v>1.030480178827473</v>
       </c>
       <c r="F18">
-        <v>0.9914983484399955</v>
+        <v>1.039655144386511</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039151842754185</v>
+        <v>1.028577568090549</v>
       </c>
       <c r="J18">
-        <v>1.007060973005389</v>
+        <v>1.026432099107601</v>
       </c>
       <c r="K18">
-        <v>1.016328357355277</v>
+        <v>1.028999817431747</v>
       </c>
       <c r="L18">
-        <v>1.007490298432066</v>
+        <v>1.033823207483648</v>
       </c>
       <c r="M18">
-        <v>1.005465463058767</v>
+        <v>1.042966557499708</v>
       </c>
       <c r="N18">
-        <v>1.006402695023043</v>
+        <v>1.012879218253267</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9795605804431801</v>
+        <v>1.020293951012121</v>
       </c>
       <c r="D19">
-        <v>1.002830025858539</v>
+        <v>1.025692472671809</v>
       </c>
       <c r="E19">
-        <v>0.9938921534158439</v>
+        <v>1.030548669829492</v>
       </c>
       <c r="F19">
-        <v>0.9919169011869338</v>
+        <v>1.039743128484491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039257085009435</v>
+        <v>1.028589503040743</v>
       </c>
       <c r="J19">
-        <v>1.007279350816237</v>
+        <v>1.026475083889072</v>
       </c>
       <c r="K19">
-        <v>1.016535805322747</v>
+        <v>1.029037776610791</v>
       </c>
       <c r="L19">
-        <v>1.007752041204559</v>
+        <v>1.033877068079503</v>
       </c>
       <c r="M19">
-        <v>1.005811332112273</v>
+        <v>1.043039994057688</v>
       </c>
       <c r="N19">
-        <v>1.006475143923646</v>
+        <v>1.012893445924257</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9778882057988038</v>
+        <v>1.019976827055404</v>
       </c>
       <c r="D20">
-        <v>1.00158913267943</v>
+        <v>1.025457124949941</v>
       </c>
       <c r="E20">
-        <v>0.9923994326446088</v>
+        <v>1.030242400929551</v>
       </c>
       <c r="F20">
-        <v>0.9900389412702704</v>
+        <v>1.039349720487999</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038783500495146</v>
+        <v>1.02853596499083</v>
       </c>
       <c r="J20">
-        <v>1.006298938828277</v>
+        <v>1.026282800179099</v>
       </c>
       <c r="K20">
-        <v>1.015604096541716</v>
+        <v>1.028867914487027</v>
       </c>
       <c r="L20">
-        <v>1.006577258569783</v>
+        <v>1.033636179447734</v>
       </c>
       <c r="M20">
-        <v>1.004259234848988</v>
+        <v>1.042711600290134</v>
       </c>
       <c r="N20">
-        <v>1.006149884374766</v>
+        <v>1.012829799769254</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9723420184247568</v>
+        <v>1.018945862668026</v>
       </c>
       <c r="D21">
-        <v>0.9974745345011072</v>
+        <v>1.024691189636461</v>
       </c>
       <c r="E21">
-        <v>0.9874589534901297</v>
+        <v>1.029247379201247</v>
       </c>
       <c r="F21">
-        <v>0.9838229255791235</v>
+        <v>1.038072077369828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037191658036665</v>
+        <v>1.028359063875936</v>
       </c>
       <c r="J21">
-        <v>1.003043415833719</v>
+        <v>1.025656868939998</v>
       </c>
       <c r="K21">
-        <v>1.012503911082043</v>
+        <v>1.02831392941318</v>
       </c>
       <c r="L21">
-        <v>1.002681879819824</v>
+        <v>1.032852830511851</v>
       </c>
       <c r="M21">
-        <v>0.9991173985866393</v>
+        <v>1.041644521075595</v>
       </c>
       <c r="N21">
-        <v>1.005069873538578</v>
+        <v>1.012622588612879</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9687670073534443</v>
+        <v>1.01829768585935</v>
       </c>
       <c r="D22">
-        <v>0.9948233028491204</v>
+        <v>1.024209011685985</v>
       </c>
       <c r="E22">
-        <v>0.98428224275351</v>
+        <v>1.028622301677421</v>
       </c>
       <c r="F22">
-        <v>0.9798253157889434</v>
+        <v>1.037269820868396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036149575074734</v>
+        <v>1.028245662930866</v>
       </c>
       <c r="J22">
-        <v>1.000942002400118</v>
+        <v>1.025262713160231</v>
       </c>
       <c r="K22">
-        <v>1.010498013422328</v>
+        <v>1.027964283207065</v>
       </c>
       <c r="L22">
-        <v>1.000171637057693</v>
+        <v>1.032360160875515</v>
       </c>
       <c r="M22">
-        <v>0.9958073188348052</v>
+        <v>1.04097403881805</v>
       </c>
       <c r="N22">
-        <v>1.0043727754136</v>
+        <v>1.012492084866612</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9706708058883775</v>
+        <v>1.018641293436776</v>
       </c>
       <c r="D23">
-        <v>0.9962350354802274</v>
+        <v>1.024464680144871</v>
       </c>
       <c r="E23">
-        <v>0.9859731794889186</v>
+        <v>1.028953616355555</v>
       </c>
       <c r="F23">
-        <v>0.9819533022060792</v>
+        <v>1.037695012666035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036705993979641</v>
+        <v>1.028305984966366</v>
       </c>
       <c r="J23">
-        <v>1.002061327301627</v>
+        <v>1.025471719970618</v>
       </c>
       <c r="K23">
-        <v>1.011566897444688</v>
+        <v>1.028149763370374</v>
       </c>
       <c r="L23">
-        <v>1.001508338430757</v>
+        <v>1.032621348072501</v>
       </c>
       <c r="M23">
-        <v>0.9975696249661141</v>
+        <v>1.041329432928299</v>
       </c>
       <c r="N23">
-        <v>1.004744082453014</v>
+        <v>1.012561288308284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.977979759892751</v>
+        <v>1.019994111791468</v>
       </c>
       <c r="D24">
-        <v>1.001657064143255</v>
+        <v>1.025469955618045</v>
       </c>
       <c r="E24">
-        <v>0.9924811152459684</v>
+        <v>1.030259091554565</v>
       </c>
       <c r="F24">
-        <v>0.9901417054457359</v>
+        <v>1.039371158080092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038809506989528</v>
+        <v>1.028538893819618</v>
       </c>
       <c r="J24">
-        <v>1.006352627410321</v>
+        <v>1.026293283636929</v>
       </c>
       <c r="K24">
-        <v>1.015655142235325</v>
+        <v>1.028877179435306</v>
       </c>
       <c r="L24">
-        <v>1.00664157019255</v>
+        <v>1.033649309850814</v>
       </c>
       <c r="M24">
-        <v>1.004344184189315</v>
+        <v>1.042729497308779</v>
       </c>
       <c r="N24">
-        <v>1.006167695894432</v>
+        <v>1.012833269909897</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9861055503040852</v>
+        <v>1.021564095246489</v>
       </c>
       <c r="D25">
-        <v>1.007686149469221</v>
+        <v>1.026633846126664</v>
       </c>
       <c r="E25">
-        <v>0.9997478487106419</v>
+        <v>1.03177630912133</v>
       </c>
       <c r="F25">
-        <v>0.9992838783754677</v>
+        <v>1.041320779236889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041078829860164</v>
+        <v>1.028799672421043</v>
       </c>
       <c r="J25">
-        <v>1.011109739754763</v>
+        <v>1.027243989457239</v>
       </c>
       <c r="K25">
-        <v>1.020166308200947</v>
+        <v>1.029715463432962</v>
       </c>
       <c r="L25">
-        <v>1.01235008026458</v>
+        <v>1.034841537646848</v>
       </c>
       <c r="M25">
-        <v>1.011893321390967</v>
+        <v>1.044356058763902</v>
       </c>
       <c r="N25">
-        <v>1.007745926287662</v>
+        <v>1.013147913806756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022816374890177</v>
+        <v>0.9923264054069395</v>
       </c>
       <c r="D2">
-        <v>1.027559953783402</v>
+        <v>1.012299628290589</v>
       </c>
       <c r="E2">
-        <v>1.032988247842739</v>
+        <v>1.005334875364014</v>
       </c>
       <c r="F2">
-        <v>1.042879440361947</v>
+        <v>1.006314177106589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02899998184734</v>
+        <v>1.042758149624977</v>
       </c>
       <c r="J2">
-        <v>1.028000085590942</v>
+        <v>1.014739080103741</v>
       </c>
       <c r="K2">
-        <v>1.030379327425508</v>
+        <v>1.023590228475329</v>
       </c>
       <c r="L2">
-        <v>1.03579189266329</v>
+        <v>1.016720383899353</v>
       </c>
       <c r="M2">
-        <v>1.045654881882074</v>
+        <v>1.017686240765064</v>
       </c>
       <c r="N2">
-        <v>1.013398075608869</v>
+        <v>1.008949990031625</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023725666834165</v>
+        <v>0.9967043184131082</v>
       </c>
       <c r="D3">
-        <v>1.028231084591541</v>
+        <v>1.0155436515026</v>
       </c>
       <c r="E3">
-        <v>1.033869257034048</v>
+        <v>1.009279929204966</v>
       </c>
       <c r="F3">
-        <v>1.044013274956967</v>
+        <v>1.011280078177187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029140952402609</v>
+        <v>1.043905156953099</v>
       </c>
       <c r="J3">
-        <v>1.028547797808808</v>
+        <v>1.017285232023842</v>
       </c>
       <c r="K3">
-        <v>1.030858578367409</v>
+        <v>1.025981437579476</v>
       </c>
       <c r="L3">
-        <v>1.036481595846159</v>
+        <v>1.019795432756487</v>
       </c>
       <c r="M3">
-        <v>1.04659879274947</v>
+        <v>1.021770634430214</v>
       </c>
       <c r="N3">
-        <v>1.013579247713899</v>
+        <v>1.009794648627762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02431404750331</v>
+        <v>0.9994764293431159</v>
       </c>
       <c r="D4">
-        <v>1.028664738682125</v>
+        <v>1.017596081526096</v>
       </c>
       <c r="E4">
-        <v>1.034439802239133</v>
+        <v>1.011783882972972</v>
       </c>
       <c r="F4">
-        <v>1.044747914831296</v>
+        <v>1.014433073132569</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029230095846343</v>
+        <v>1.044614923011629</v>
       </c>
       <c r="J4">
-        <v>1.028901606991762</v>
+        <v>1.018893537600384</v>
       </c>
       <c r="K4">
-        <v>1.031167396144163</v>
+        <v>1.02748667646082</v>
       </c>
       <c r="L4">
-        <v>1.036927718930909</v>
+        <v>1.021742137251108</v>
       </c>
       <c r="M4">
-        <v>1.047209956401147</v>
+        <v>1.024360369497699</v>
       </c>
       <c r="N4">
-        <v>1.013696260104713</v>
+        <v>1.010328151463288</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024561403770503</v>
+        <v>1.000627799233305</v>
       </c>
       <c r="D5">
-        <v>1.02884689877732</v>
+        <v>1.018448067061759</v>
       </c>
       <c r="E5">
-        <v>1.034679771723932</v>
+        <v>1.012825275321151</v>
       </c>
       <c r="F5">
-        <v>1.045056989683696</v>
+        <v>1.015744708033275</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029267074457312</v>
+        <v>1.044905690729282</v>
       </c>
       <c r="J5">
-        <v>1.029050204510481</v>
+        <v>1.019560555951872</v>
       </c>
       <c r="K5">
-        <v>1.031296913263204</v>
+        <v>1.028109674934868</v>
       </c>
       <c r="L5">
-        <v>1.037115229689299</v>
+        <v>1.022550554397059</v>
       </c>
       <c r="M5">
-        <v>1.047466982261458</v>
+        <v>1.025436819674225</v>
       </c>
       <c r="N5">
-        <v>1.013745399586935</v>
+        <v>1.010549402649785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024602936011279</v>
+        <v>1.000820311014674</v>
       </c>
       <c r="D6">
-        <v>1.02887747553214</v>
+        <v>1.018590491491502</v>
       </c>
       <c r="E6">
-        <v>1.034720070210241</v>
+        <v>1.012999480165654</v>
       </c>
       <c r="F6">
-        <v>1.045108898310083</v>
+        <v>1.015964138484186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029273254144216</v>
+        <v>1.044954069240479</v>
       </c>
       <c r="J6">
-        <v>1.029075146225924</v>
+        <v>1.019672024653457</v>
       </c>
       <c r="K6">
-        <v>1.031318641553042</v>
+        <v>1.028213711486663</v>
       </c>
       <c r="L6">
-        <v>1.037146711236469</v>
+        <v>1.022685715414118</v>
       </c>
       <c r="M6">
-        <v>1.047510143446122</v>
+        <v>1.02561685320649</v>
       </c>
       <c r="N6">
-        <v>1.013753647232708</v>
+        <v>1.01058637635446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024317352686902</v>
+        <v>0.9994918684657751</v>
       </c>
       <c r="D7">
-        <v>1.028667173297976</v>
+        <v>1.017607508046722</v>
       </c>
       <c r="E7">
-        <v>1.034443008283262</v>
+        <v>1.011797841871243</v>
       </c>
       <c r="F7">
-        <v>1.044752043792909</v>
+        <v>1.014450653114906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029230591911381</v>
+        <v>1.044618838011129</v>
       </c>
       <c r="J7">
-        <v>1.028903593125476</v>
+        <v>1.018902485784147</v>
       </c>
       <c r="K7">
-        <v>1.031169127977289</v>
+        <v>1.027495039186063</v>
       </c>
       <c r="L7">
-        <v>1.036930224614671</v>
+        <v>1.021752978138959</v>
       </c>
       <c r="M7">
-        <v>1.047213390430129</v>
+        <v>1.02437480073141</v>
       </c>
       <c r="N7">
-        <v>1.01369691691568</v>
+        <v>1.010331119635386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023123672182278</v>
+        <v>0.993818820129871</v>
       </c>
       <c r="D8">
-        <v>1.027786891507369</v>
+        <v>1.013405820397328</v>
       </c>
       <c r="E8">
-        <v>1.033285890390322</v>
+        <v>1.006678470244838</v>
       </c>
       <c r="F8">
-        <v>1.043262423165682</v>
+        <v>1.0080052445869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029048052455761</v>
+        <v>1.04315258944474</v>
       </c>
       <c r="J8">
-        <v>1.028185310635995</v>
+        <v>1.015607857403914</v>
       </c>
       <c r="K8">
-        <v>1.030541558872346</v>
+        <v>1.024407212342973</v>
       </c>
       <c r="L8">
-        <v>1.036025013911484</v>
+        <v>1.017768731003769</v>
       </c>
       <c r="M8">
-        <v>1.045973799731858</v>
+        <v>1.019077860708887</v>
       </c>
       <c r="N8">
-        <v>1.013459348532804</v>
+        <v>1.009238203837733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021020353938149</v>
+        <v>0.9833333146986982</v>
       </c>
       <c r="D9">
-        <v>1.026231096395358</v>
+        <v>1.00562938223431</v>
       </c>
       <c r="E9">
-        <v>1.031250571599318</v>
+        <v>0.9972648387639678</v>
       </c>
       <c r="F9">
-        <v>1.04064500466883</v>
+        <v>0.9961599650093209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028710545158183</v>
+        <v>1.040313610964088</v>
       </c>
       <c r="J9">
-        <v>1.026915069336979</v>
+        <v>1.009488662679239</v>
       </c>
       <c r="K9">
-        <v>1.029425874407922</v>
+        <v>1.018631782157634</v>
       </c>
       <c r="L9">
-        <v>1.034428720862707</v>
+        <v>1.010402448473575</v>
       </c>
       <c r="M9">
-        <v>1.043792503927648</v>
+        <v>1.009315652864637</v>
       </c>
       <c r="N9">
-        <v>1.01303906643594</v>
+        <v>1.007208110772689</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019618257935725</v>
+        <v>0.9759783852452167</v>
       </c>
       <c r="D10">
-        <v>1.025190874445915</v>
+        <v>1.0001721316064</v>
       </c>
       <c r="E10">
-        <v>1.029896220100315</v>
+        <v>0.990696482696316</v>
       </c>
       <c r="F10">
-        <v>1.038905129510816</v>
+        <v>0.9878964336672919</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028474929386494</v>
+        <v>1.038238943880275</v>
       </c>
       <c r="J10">
-        <v>1.026065242603252</v>
+        <v>1.005178589926992</v>
       </c>
       <c r="K10">
-        <v>1.028675542565752</v>
+        <v>1.014538278859272</v>
       </c>
       <c r="L10">
-        <v>1.033363769456626</v>
+        <v>1.005235771617347</v>
       </c>
       <c r="M10">
-        <v>1.042340380410411</v>
+        <v>1.00248771542194</v>
       </c>
       <c r="N10">
-        <v>1.01275778316008</v>
+        <v>1.005778204771946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019011172172623</v>
+        <v>0.9726984084594881</v>
       </c>
       <c r="D11">
-        <v>1.024739746804257</v>
+        <v>0.9977388857252329</v>
       </c>
       <c r="E11">
-        <v>1.029310382538446</v>
+        <v>0.9877759713089636</v>
       </c>
       <c r="F11">
-        <v>1.038152954494236</v>
+        <v>0.9842218264529504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028370397636827</v>
+        <v>1.037294881283053</v>
       </c>
       <c r="J11">
-        <v>1.02569655706187</v>
+        <v>1.003252786219019</v>
       </c>
       <c r="K11">
-        <v>1.028349102172932</v>
+        <v>1.012703569697377</v>
       </c>
       <c r="L11">
-        <v>1.032902464079779</v>
+        <v>1.002932156418204</v>
       </c>
       <c r="M11">
-        <v>1.041712094996036</v>
+        <v>0.9994475589938039</v>
       </c>
       <c r="N11">
-        <v>1.012635728357418</v>
+        <v>1.005139329547883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018785678860518</v>
+        <v>0.9714649626299766</v>
       </c>
       <c r="D12">
-        <v>1.024572073398303</v>
+        <v>0.9968240175553917</v>
       </c>
       <c r="E12">
-        <v>1.029092868279036</v>
+        <v>0.9866790499357342</v>
       </c>
       <c r="F12">
-        <v>1.037873744370017</v>
+        <v>0.9828415526279127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028331193698861</v>
+        <v>1.036937110792702</v>
       </c>
       <c r="J12">
-        <v>1.025559505690137</v>
+        <v>1.002528072840641</v>
       </c>
       <c r="K12">
-        <v>1.028227617056236</v>
+        <v>1.012012318378114</v>
       </c>
       <c r="L12">
-        <v>1.032731089242572</v>
+        <v>1.002065986938147</v>
       </c>
       <c r="M12">
-        <v>1.041478796573182</v>
+        <v>0.9983050335391392</v>
       </c>
       <c r="N12">
-        <v>1.012590353397531</v>
+        <v>1.004898916354628</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018834047687099</v>
+        <v>0.9717302386104868</v>
       </c>
       <c r="D13">
-        <v>1.024608044620858</v>
+        <v>0.9970207684822421</v>
       </c>
       <c r="E13">
-        <v>1.029139521652938</v>
+        <v>0.9869149022271272</v>
       </c>
       <c r="F13">
-        <v>1.037933627682915</v>
+        <v>0.9831383358701735</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02833962008908</v>
+        <v>1.037014179192804</v>
       </c>
       <c r="J13">
-        <v>1.025588908420438</v>
+        <v>1.00268395843608</v>
       </c>
       <c r="K13">
-        <v>1.028253686446064</v>
+        <v>1.012161042716237</v>
       </c>
       <c r="L13">
-        <v>1.032767850868434</v>
+        <v>1.002252267449436</v>
       </c>
       <c r="M13">
-        <v>1.041528836484595</v>
+        <v>0.9985507219302284</v>
       </c>
       <c r="N13">
-        <v>1.012600088212333</v>
+        <v>1.004950628808116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018992532711474</v>
+        <v>0.9725967646897915</v>
       </c>
       <c r="D14">
-        <v>1.024725888992456</v>
+        <v>0.9976634909313844</v>
       </c>
       <c r="E14">
-        <v>1.029292400861993</v>
+        <v>0.9876855504168249</v>
       </c>
       <c r="F14">
-        <v>1.038129871199502</v>
+        <v>0.9841080512158493</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028367164697311</v>
+        <v>1.037265454193611</v>
       </c>
       <c r="J14">
-        <v>1.025685230493264</v>
+        <v>1.003193075292666</v>
       </c>
       <c r="K14">
-        <v>1.028339064874054</v>
+        <v>1.012646632223424</v>
       </c>
       <c r="L14">
-        <v>1.032888298697924</v>
+        <v>1.002860776042996</v>
       </c>
       <c r="M14">
-        <v>1.041692808947256</v>
+        <v>0.9993533926216349</v>
       </c>
       <c r="N14">
-        <v>1.012631978430221</v>
+        <v>1.005119521161171</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019090181298367</v>
+        <v>0.9731286317906757</v>
       </c>
       <c r="D15">
-        <v>1.024798482990476</v>
+        <v>0.9980580132790594</v>
       </c>
       <c r="E15">
-        <v>1.029386606992681</v>
+        <v>0.988158747149908</v>
       </c>
       <c r="F15">
-        <v>1.038250807328911</v>
+        <v>0.9847034622007813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028384086011022</v>
+        <v>1.037419324399297</v>
       </c>
       <c r="J15">
-        <v>1.025744563791324</v>
+        <v>1.003505501714781</v>
       </c>
       <c r="K15">
-        <v>1.02839163881207</v>
+        <v>1.01294451392795</v>
       </c>
       <c r="L15">
-        <v>1.032962507225984</v>
+        <v>1.00323428995699</v>
       </c>
       <c r="M15">
-        <v>1.041793847716559</v>
+        <v>0.9998461630962465</v>
       </c>
       <c r="N15">
-        <v>1.012651621969781</v>
+        <v>1.005223165181224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019658548933014</v>
+        <v>0.976193992267864</v>
       </c>
       <c r="D16">
-        <v>1.025220799571068</v>
+        <v>1.000332096564617</v>
       </c>
       <c r="E16">
-        <v>1.029935113046817</v>
+        <v>0.9908886448200701</v>
       </c>
       <c r="F16">
-        <v>1.038955074267129</v>
+        <v>0.9881382003384943</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028481814021074</v>
+        <v>1.038300615307608</v>
       </c>
       <c r="J16">
-        <v>1.026089696261254</v>
+        <v>1.00530510820876</v>
       </c>
       <c r="K16">
-        <v>1.028697174943051</v>
+        <v>1.014658697371039</v>
       </c>
       <c r="L16">
-        <v>1.033394381162511</v>
+        <v>1.005387211672164</v>
       </c>
       <c r="M16">
-        <v>1.04238208809512</v>
+        <v>1.002687659168053</v>
       </c>
       <c r="N16">
-        <v>1.012765878138786</v>
+        <v>1.005820177329906</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C17">
-        <v>1.020015079747943</v>
+        <v>0.9780907609015651</v>
       </c>
       <c r="D17">
-        <v>1.025485519904336</v>
+        <v>1.001739425094796</v>
       </c>
       <c r="E17">
-        <v>1.030279339179861</v>
+        <v>0.9925801535929248</v>
       </c>
       <c r="F17">
-        <v>1.039397164596682</v>
+        <v>0.9902663045393824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028542445096334</v>
+        <v>1.038841025186058</v>
       </c>
       <c r="J17">
-        <v>1.026306000546719</v>
+        <v>1.006417717494925</v>
       </c>
       <c r="K17">
-        <v>1.028888417631373</v>
+        <v>1.015717024471178</v>
       </c>
       <c r="L17">
-        <v>1.033665238092887</v>
+        <v>1.006719542482788</v>
       </c>
       <c r="M17">
-        <v>1.042751208324283</v>
+        <v>1.004447180652088</v>
       </c>
       <c r="N17">
-        <v>1.012837479332056</v>
+        <v>1.006189289949681</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020223041089897</v>
+        <v>0.9791879818593948</v>
       </c>
       <c r="D18">
-        <v>1.025639858714987</v>
+        <v>1.002553556525814</v>
       </c>
       <c r="E18">
-        <v>1.030480178827473</v>
+        <v>0.9935594590040575</v>
       </c>
       <c r="F18">
-        <v>1.039655144386511</v>
+        <v>0.9914983484399933</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028577568090549</v>
+        <v>1.039151842754185</v>
       </c>
       <c r="J18">
-        <v>1.026432099107601</v>
+        <v>1.007060973005388</v>
       </c>
       <c r="K18">
-        <v>1.028999817431747</v>
+        <v>1.016328357355277</v>
       </c>
       <c r="L18">
-        <v>1.033823207483648</v>
+        <v>1.007490298432065</v>
       </c>
       <c r="M18">
-        <v>1.042966557499708</v>
+        <v>1.005465463058765</v>
       </c>
       <c r="N18">
-        <v>1.012879218253267</v>
+        <v>1.006402695023043</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020293951012121</v>
+        <v>0.979560580443181</v>
       </c>
       <c r="D19">
-        <v>1.025692472671809</v>
+        <v>1.00283002585854</v>
       </c>
       <c r="E19">
-        <v>1.030548669829492</v>
+        <v>0.993892153415845</v>
       </c>
       <c r="F19">
-        <v>1.039743128484491</v>
+        <v>0.991916901186935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028589503040743</v>
+        <v>1.039257085009436</v>
       </c>
       <c r="J19">
-        <v>1.026475083889072</v>
+        <v>1.007279350816238</v>
       </c>
       <c r="K19">
-        <v>1.029037776610791</v>
+        <v>1.016535805322748</v>
       </c>
       <c r="L19">
-        <v>1.033877068079503</v>
+        <v>1.00775204120456</v>
       </c>
       <c r="M19">
-        <v>1.043039994057688</v>
+        <v>1.005811332112274</v>
       </c>
       <c r="N19">
-        <v>1.012893445924257</v>
+        <v>1.006475143923647</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019976827055404</v>
+        <v>0.9778882057988035</v>
       </c>
       <c r="D20">
-        <v>1.025457124949941</v>
+        <v>1.00158913267943</v>
       </c>
       <c r="E20">
-        <v>1.030242400929551</v>
+        <v>0.9923994326446081</v>
       </c>
       <c r="F20">
-        <v>1.039349720487999</v>
+        <v>0.9900389412702695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02853596499083</v>
+        <v>1.038783500495146</v>
       </c>
       <c r="J20">
-        <v>1.026282800179099</v>
+        <v>1.006298938828277</v>
       </c>
       <c r="K20">
-        <v>1.028867914487027</v>
+        <v>1.015604096541716</v>
       </c>
       <c r="L20">
-        <v>1.033636179447734</v>
+        <v>1.006577258569782</v>
       </c>
       <c r="M20">
-        <v>1.042711600290134</v>
+        <v>1.004259234848987</v>
       </c>
       <c r="N20">
-        <v>1.012829799769254</v>
+        <v>1.006149884374766</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018945862668026</v>
+        <v>0.972342018424757</v>
       </c>
       <c r="D21">
-        <v>1.024691189636461</v>
+        <v>0.9974745345011073</v>
       </c>
       <c r="E21">
-        <v>1.029247379201247</v>
+        <v>0.9874589534901291</v>
       </c>
       <c r="F21">
-        <v>1.038072077369828</v>
+        <v>0.9838229255791229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028359063875936</v>
+        <v>1.037191658036664</v>
       </c>
       <c r="J21">
-        <v>1.025656868939998</v>
+        <v>1.003043415833719</v>
       </c>
       <c r="K21">
-        <v>1.02831392941318</v>
+        <v>1.012503911082043</v>
       </c>
       <c r="L21">
-        <v>1.032852830511851</v>
+        <v>1.002681879819824</v>
       </c>
       <c r="M21">
-        <v>1.041644521075595</v>
+        <v>0.9991173985866386</v>
       </c>
       <c r="N21">
-        <v>1.012622588612879</v>
+        <v>1.005069873538578</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.01829768585935</v>
+        <v>0.9687670073534437</v>
       </c>
       <c r="D22">
-        <v>1.024209011685985</v>
+        <v>0.9948233028491198</v>
       </c>
       <c r="E22">
-        <v>1.028622301677421</v>
+        <v>0.9842822427535093</v>
       </c>
       <c r="F22">
-        <v>1.037269820868396</v>
+        <v>0.9798253157889427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028245662930866</v>
+        <v>1.036149575074733</v>
       </c>
       <c r="J22">
-        <v>1.025262713160231</v>
+        <v>1.000942002400117</v>
       </c>
       <c r="K22">
-        <v>1.027964283207065</v>
+        <v>1.010498013422328</v>
       </c>
       <c r="L22">
-        <v>1.032360160875515</v>
+        <v>1.000171637057692</v>
       </c>
       <c r="M22">
-        <v>1.04097403881805</v>
+        <v>0.9958073188348047</v>
       </c>
       <c r="N22">
-        <v>1.012492084866612</v>
+        <v>1.0043727754136</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018641293436776</v>
+        <v>0.9706708058883774</v>
       </c>
       <c r="D23">
-        <v>1.024464680144871</v>
+        <v>0.9962350354802271</v>
       </c>
       <c r="E23">
-        <v>1.028953616355555</v>
+        <v>0.9859731794889186</v>
       </c>
       <c r="F23">
-        <v>1.037695012666035</v>
+        <v>0.9819533022060793</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028305984966366</v>
+        <v>1.036705993979641</v>
       </c>
       <c r="J23">
-        <v>1.025471719970618</v>
+        <v>1.002061327301627</v>
       </c>
       <c r="K23">
-        <v>1.028149763370374</v>
+        <v>1.011566897444688</v>
       </c>
       <c r="L23">
-        <v>1.032621348072501</v>
+        <v>1.001508338430757</v>
       </c>
       <c r="M23">
-        <v>1.041329432928299</v>
+        <v>0.997569624966114</v>
       </c>
       <c r="N23">
-        <v>1.012561288308284</v>
+        <v>1.004744082453014</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019994111791468</v>
+        <v>0.9779797598927502</v>
       </c>
       <c r="D24">
-        <v>1.025469955618045</v>
+        <v>1.001657064143255</v>
       </c>
       <c r="E24">
-        <v>1.030259091554565</v>
+        <v>0.9924811152459676</v>
       </c>
       <c r="F24">
-        <v>1.039371158080092</v>
+        <v>0.9901417054457348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028538893819618</v>
+        <v>1.038809506989528</v>
       </c>
       <c r="J24">
-        <v>1.026293283636929</v>
+        <v>1.00635262741032</v>
       </c>
       <c r="K24">
-        <v>1.028877179435306</v>
+        <v>1.015655142235324</v>
       </c>
       <c r="L24">
-        <v>1.033649309850814</v>
+        <v>1.006641570192549</v>
       </c>
       <c r="M24">
-        <v>1.042729497308779</v>
+        <v>1.004344184189314</v>
       </c>
       <c r="N24">
-        <v>1.012833269909897</v>
+        <v>1.006167695894432</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021564095246489</v>
+        <v>0.986105550304085</v>
       </c>
       <c r="D25">
-        <v>1.026633846126664</v>
+        <v>1.00768614946922</v>
       </c>
       <c r="E25">
-        <v>1.03177630912133</v>
+        <v>0.9997478487106417</v>
       </c>
       <c r="F25">
-        <v>1.041320779236889</v>
+        <v>0.9992838783754677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028799672421043</v>
+        <v>1.041078829860164</v>
       </c>
       <c r="J25">
-        <v>1.027243989457239</v>
+        <v>1.011109739754762</v>
       </c>
       <c r="K25">
-        <v>1.029715463432962</v>
+        <v>1.020166308200946</v>
       </c>
       <c r="L25">
-        <v>1.034841537646848</v>
+        <v>1.01235008026458</v>
       </c>
       <c r="M25">
-        <v>1.044356058763902</v>
+        <v>1.011893321390967</v>
       </c>
       <c r="N25">
-        <v>1.013147913806756</v>
+        <v>1.007745926287662</v>
       </c>
     </row>
   </sheetData>
